--- a/table.xlsx
+++ b/table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Compress_factor</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Correct_decompress</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,116 +478,1454 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>enwik7</t>
+          <t>enwik9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>756</v>
+        <v>3368</v>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F2" t="n">
-        <v>0.756</v>
+        <v>1.484560570071259</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RLE</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>enwik7</t>
+          <t>ru_text.txt</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D3" t="n">
-        <v>964</v>
+        <v>2568</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F3" t="n">
-        <v>0.964</v>
+        <v>1.947040498442368</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BWT + RLE</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>enwik7</t>
+          <t>exe_file.exe</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D4" t="n">
-        <v>535</v>
+        <v>4066</v>
       </c>
       <c r="E4" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F4" t="n">
-        <v>0.535</v>
+        <v>1.229709788489916</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BWT + MTF + HA</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>enwik7</t>
+          <t>img.bmp</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D5" t="n">
-        <v>555</v>
+        <v>4320</v>
       </c>
       <c r="E5" t="n">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="F5" t="n">
-        <v>0.555</v>
+        <v>1.157407407407407</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4320</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.157407407407407</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4320</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.157407407407407</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RLE</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>enwik9</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9433962264150944</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RLE</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ru_text.txt</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5002</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9996001599360256</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>RLE</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>exe_file.exe</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4855</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.029866117404737</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RLE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5557</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8997660608241858</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RLE</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5557</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8997660608241858</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RLE</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5557</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.8997660608241858</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>BWT + RLE</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>enwik9</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3464</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.443418013856813</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BWT + RLE</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ru_text.txt</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2982</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.676727028839705</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BWT + RLE</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>exe_file.exe</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3346</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.494321578003586</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BWT + RLE</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6076</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.8229098090849243</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>BWT + RLE</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6076</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8229098090849243</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BWT + RLE</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>6076</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.8229098090849243</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>BWT + MTF + HA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>enwik9</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.506265664160401</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BWT + MTF + HA</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ru_text.txt</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1474</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3.3921302578019</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>BWT + MTF + HA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>exe_file.exe</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2790</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.792114695340502</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BWT + MTF + HA</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4299</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.163061177017911</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BWT + MTF + HA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4299</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.163061177017911</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>BWT + MTF + HA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4299</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.163061177017911</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>BWT + MTF + RLE + HA</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>enwik7</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D6" t="n">
-        <v>662</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.662</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>enwik9</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2327</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.148689299527288</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BWT + MTF + RLE + HA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ru_text.txt</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1759</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.842524161455372</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BWT + MTF + RLE + HA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>exe_file.exe</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2881</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.73550850399167</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BWT + MTF + RLE + HA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4671</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.070434596446157</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BWT + MTF + RLE + HA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4671</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.070434596446157</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BWT + MTF + RLE + HA</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4671</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.070434596446157</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>LZ77</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>enwik9</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4861</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.028594939312899</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LZ77</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ru_text.txt</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4208</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.188212927756654</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LZ77</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>exe_file.exe</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5832</v>
+      </c>
+      <c r="E34" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.8573388203017832</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LZ77</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D35" t="n">
+        <v>14361</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.3481651695564376</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LZ77</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14361</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.3481651695564376</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LZ77</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D37" t="n">
+        <v>14361</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3481651695564376</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>LZ77 + HA</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>enwik9</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3388</v>
+      </c>
+      <c r="E38" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.475796930342385</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>LZ77 + HA</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ru_text.txt</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3161</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.581777918380259</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LZ77 + HA</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>exe_file.exe</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3536</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.414027149321267</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LZ77 + HA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D41" t="n">
+        <v>8169</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.6120700208103808</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LZ77 + HA</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D42" t="n">
+        <v>8169</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6120700208103808</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>LZ77 + HA</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8169</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6120700208103808</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>LZ78</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>enwik9</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4277</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.169043722235212</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>LZ78</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ru_text.txt</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3602</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.38811771238201</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>LZ78</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>exe_file.exe</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3779</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.323101349563377</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LZ78</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D47" t="n">
+        <v>6338</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7888923950773115</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>LZ78</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6338</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7888923950773115</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>LZ78</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6338</v>
+      </c>
+      <c r="E49" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7888923950773115</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>LZ78 + HA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>enwik9</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4084</v>
+      </c>
+      <c r="E50" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.224289911851126</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LZ78 + HA</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ru_text.txt</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3429</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.458151064450277</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LZ78 + HA</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>exe_file.exe</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3674</v>
+      </c>
+      <c r="E52" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.360914534567229</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LZ78 + HA</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E53" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9191176470588235</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LZ78 + HA</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E54" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9191176470588235</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LZ78 + HA</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>img.bmp</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5440</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9191176470588235</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
